--- a/biology/Médecine/1440_en_santé_et_médecine/1440_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1440_en_santé_et_médecine/1440_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1440_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1440_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1440 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1440_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1440_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1437-1440 : « seule vraie famine [en Flandre] au XVe siècle », selon Adriaan Verhulst[1].
-1440-1485 : construction de l'hôpital des chevaliers de Rhodes[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1437-1440 : « seule vraie famine [en Flandre] au XVe siècle », selon Adriaan Verhulst.
+1440-1485 : construction de l'hôpital des chevaliers de Rhodes.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1440_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1440_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Vers 1440 : composition du Tractatus de herbis (« Traité des herbes »), manuscrit sur vélin enluminé de près de cinq cents représentations de plantes, animaux et minéraux utilisés en médecine[3].
-Vers 1440 : Johannes Hartlieb (c. 1400-1468), médecin bavarois, rédige son Kräuterbuch (« Herbier[4],[5] »).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vers 1440 : composition du Tractatus de herbis (« Traité des herbes »), manuscrit sur vélin enluminé de près de cinq cents représentations de plantes, animaux et minéraux utilisés en médecine.
+Vers 1440 : Johannes Hartlieb (c. 1400-1468), médecin bavarois, rédige son Kräuterbuch (« Herbier, »).</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1440_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1440_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,11 +589,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>13 février : Hartmann Schedel (mort en 1514), médecin et humaniste allemand, reçu docteur en médecine à Padoue, établi à Nuremberg, et surtout connu comme auteur de la Chronique de Nuremberg, imprimée en 1493 par Anton Koberger[6].
-Vers 1440 : Jean Widman, dit Metchinger (mort en 1524), médecin allemand, reçu docteur à Ferrare, professeur à Ulm, Ingolstadt, Tubingue, médecin des villes de Bâle, Strasbourg, Stuttgart, Pforzheim, et au service de Christophe Ier, margrave de Bade, et d'Eberhard V, comte puis duc de Wurtemberg[7].
-Avant 1440 : Angelo Catho (mort en 1496), médecin et astrologue, membre du collège des médecins de Naples, au service du roi Ferrante, puis de Louis XI, devenu archevêque de Vienne[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>13 février : Hartmann Schedel (mort en 1514), médecin et humaniste allemand, reçu docteur en médecine à Padoue, établi à Nuremberg, et surtout connu comme auteur de la Chronique de Nuremberg, imprimée en 1493 par Anton Koberger.
+Vers 1440 : Jean Widman, dit Metchinger (mort en 1524), médecin allemand, reçu docteur à Ferrare, professeur à Ulm, Ingolstadt, Tubingue, médecin des villes de Bâle, Strasbourg, Stuttgart, Pforzheim, et au service de Christophe Ier, margrave de Bade, et d'Eberhard V, comte puis duc de Wurtemberg.
+Avant 1440 : Angelo Catho (mort en 1496), médecin et astrologue, membre du collège des médecins de Naples, au service du roi Ferrante, puis de Louis XI, devenu archevêque de Vienne.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1440_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1440_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,12 +623,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1er janvier : Jean Ottemare (né à une date inconnue), docteur en médecine[7].
-Avant novembre : Thomas Froment (né à une date inconnue), reçu bachelier en médecine à Paris[7].
-Danglebermes (né à une date inconnue), médecin orléanais[9].
-1440-1441 : Guillaume de Longolio (né à une date inconnue), professeur de médecine à Paris[9].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er janvier : Jean Ottemare (né à une date inconnue), docteur en médecine.
+Avant novembre : Thomas Froment (né à une date inconnue), reçu bachelier en médecine à Paris.
+Danglebermes (né à une date inconnue), médecin orléanais.
+1440-1441 : Guillaume de Longolio (né à une date inconnue), professeur de médecine à Paris.</t>
         </is>
       </c>
     </row>
